--- a/12 Bitwise & Shift Operators in Java/Book1.xlsx
+++ b/12 Bitwise & Shift Operators in Java/Book1.xlsx
@@ -445,7 +445,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
